--- a/documentation/budget.xlsx
+++ b/documentation/budget.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\humber.org\Home\03\0126\n01267658\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saini\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9044879-D578-4BD8-B3A4-A755C0C7F5EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Quantity</t>
   </si>
@@ -135,13 +137,51 @@
   <si>
     <t>Harleen Kaur Saini</t>
   </si>
+  <si>
+    <t>keyboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Rii Wired Keyboard RK907 Standard Business Keyboard for Office/Windows/Mac/Android TV Box/Raspberry Pi/PC/Laptop/PS3/4</t>
+  </si>
+  <si>
+    <t>CARK907</t>
+  </si>
+  <si>
+    <t>CDN$ 14.99</t>
+  </si>
+  <si>
+    <t>ZasLuke HDMI to VGA Converter Adapter, HDMI Female to VGA Male Converter with 3.5mm Audio Jack and Micro USB Power Cable for TV Stick, Xbox 360, PS4, Roku, Laptop and More (Only from HDMI to VGA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HDMI to VGA Converter Adapter</t>
+  </si>
+  <si>
+    <t>B07X4Y882Z</t>
+  </si>
+  <si>
+    <t>socket headers to connect pcb to raspberry pi and sensor</t>
+  </si>
+  <si>
+    <t>socket headers</t>
+  </si>
+  <si>
+    <t>Prototype lab</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>CDN$ 0.00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -215,25 +255,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -241,11 +278,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,548 +606,955 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28:L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5" t="s">
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5" t="s">
+      <c r="L4" s="10"/>
+      <c r="M4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5" t="s">
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="5"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="R4" s="10"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="3">
+      <c r="L6" s="5"/>
+      <c r="M6" s="4">
         <v>79.989999999999995</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="4">
         <v>0</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="3" t="s">
+      <c r="P6" s="5"/>
+      <c r="Q6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="5"/>
+      <c r="K10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="3">
+      <c r="L10" s="5"/>
+      <c r="M10" s="4">
         <v>11.98</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="4">
         <v>0</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2" t="s">
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="11">
+        <v>14.99</v>
+      </c>
+      <c r="N16" s="11">
+        <v>14.99</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" s="11"/>
+    </row>
+    <row r="17" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+    </row>
+    <row r="18" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+    </row>
+    <row r="19" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>1</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="11">
+        <v>14.99</v>
+      </c>
+      <c r="N22" s="11">
+        <v>14.99</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22" s="11"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <v>1</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="11">
+        <v>0</v>
+      </c>
+      <c r="N28" s="11">
+        <v>0</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="R28" s="11"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="2" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="2"/>
-    </row>
-    <row r="17" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="R32" s="5"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+    </row>
+    <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-    </row>
-    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+    </row>
+    <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
         <v>1</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4" t="s">
+      <c r="D35" s="5"/>
+      <c r="E35" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="2" t="s">
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2" t="s">
+      <c r="J35" s="5"/>
+      <c r="K35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="3">
+      <c r="L35" s="5"/>
+      <c r="M35" s="4">
         <v>120</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N35" s="4">
         <v>15.6</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="O35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="3" t="s">
+      <c r="P35" s="5"/>
+      <c r="Q35" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-    </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="R35" s="4"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+    </row>
+    <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="A1:R3"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="O19:P21"/>
-    <mergeCell ref="Q19:R21"/>
-    <mergeCell ref="A18:R18"/>
-    <mergeCell ref="E19:H21"/>
-    <mergeCell ref="A19:B21"/>
-    <mergeCell ref="C19:D21"/>
-    <mergeCell ref="I19:J21"/>
-    <mergeCell ref="K19:L21"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="O10:P14"/>
-    <mergeCell ref="A16:P17"/>
-    <mergeCell ref="Q16:R17"/>
-    <mergeCell ref="C10:D14"/>
-    <mergeCell ref="A10:B14"/>
+  <mergeCells count="72">
+    <mergeCell ref="A27:R27"/>
+    <mergeCell ref="A28:B30"/>
+    <mergeCell ref="C28:D30"/>
+    <mergeCell ref="E28:H30"/>
+    <mergeCell ref="I28:J30"/>
+    <mergeCell ref="K28:L30"/>
+    <mergeCell ref="M28:M30"/>
+    <mergeCell ref="N28:N30"/>
+    <mergeCell ref="O28:P30"/>
+    <mergeCell ref="Q28:R30"/>
+    <mergeCell ref="N16:N20"/>
+    <mergeCell ref="O16:P20"/>
+    <mergeCell ref="Q16:R20"/>
+    <mergeCell ref="A21:R21"/>
+    <mergeCell ref="A22:B26"/>
+    <mergeCell ref="C22:D26"/>
+    <mergeCell ref="E22:H26"/>
+    <mergeCell ref="I22:J26"/>
+    <mergeCell ref="K22:L26"/>
+    <mergeCell ref="M22:M26"/>
+    <mergeCell ref="N22:N26"/>
+    <mergeCell ref="O22:P26"/>
+    <mergeCell ref="Q22:R26"/>
+    <mergeCell ref="A31:R31"/>
+    <mergeCell ref="A9:R9"/>
+    <mergeCell ref="E10:H14"/>
+    <mergeCell ref="I10:J14"/>
+    <mergeCell ref="O6:P8"/>
+    <mergeCell ref="Q6:R8"/>
+    <mergeCell ref="A6:B8"/>
+    <mergeCell ref="Q10:R14"/>
+    <mergeCell ref="A15:R15"/>
+    <mergeCell ref="A16:B20"/>
+    <mergeCell ref="C16:D20"/>
+    <mergeCell ref="E16:H20"/>
+    <mergeCell ref="I16:J20"/>
+    <mergeCell ref="K16:L20"/>
+    <mergeCell ref="M16:M20"/>
+    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:H5"/>
+    <mergeCell ref="C6:D8"/>
+    <mergeCell ref="E6:H8"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:P5"/>
     <mergeCell ref="K10:L14"/>
     <mergeCell ref="M10:M14"/>
     <mergeCell ref="N10:N14"/>
@@ -1109,25 +1562,22 @@
     <mergeCell ref="K6:L8"/>
     <mergeCell ref="M6:M8"/>
     <mergeCell ref="N6:N8"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="Q4:R5"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:H5"/>
-    <mergeCell ref="C6:D8"/>
-    <mergeCell ref="E6:H8"/>
-    <mergeCell ref="A15:R15"/>
-    <mergeCell ref="A9:R9"/>
-    <mergeCell ref="E10:H14"/>
-    <mergeCell ref="I10:J14"/>
-    <mergeCell ref="O6:P8"/>
-    <mergeCell ref="Q6:R8"/>
-    <mergeCell ref="A6:B8"/>
-    <mergeCell ref="Q10:R14"/>
+    <mergeCell ref="A1:R3"/>
+    <mergeCell ref="N35:N37"/>
+    <mergeCell ref="O35:P37"/>
+    <mergeCell ref="Q35:R37"/>
+    <mergeCell ref="A34:R34"/>
+    <mergeCell ref="E35:H37"/>
+    <mergeCell ref="A35:B37"/>
+    <mergeCell ref="C35:D37"/>
+    <mergeCell ref="I35:J37"/>
+    <mergeCell ref="K35:L37"/>
+    <mergeCell ref="M35:M37"/>
+    <mergeCell ref="O10:P14"/>
+    <mergeCell ref="A32:P33"/>
+    <mergeCell ref="Q32:R33"/>
+    <mergeCell ref="C10:D14"/>
+    <mergeCell ref="A10:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="portrait" r:id="rId1"/>
